--- a/data/processed/Overview_of_results.xlsx
+++ b/data/processed/Overview_of_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizmedeiros/Documents/covid/covid-drivers/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29375690-10E9-7F4F-A0C2-4DB109BD9EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106351AA-3AA4-F84D-A44A-41082125941C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-1420" windowWidth="38400" windowHeight="24000" xr2:uid="{7CA77637-F8F5-8C43-91E2-0857DED38949}"/>
+    <workbookView xWindow="33600" yWindow="-960" windowWidth="38400" windowHeight="23540" xr2:uid="{7CA77637-F8F5-8C43-91E2-0857DED38949}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Method</t>
   </si>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t xml:space="preserve">Dataset was too small </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likelihood -ratio tests on PCA data </t>
+  </si>
+  <si>
+    <t>Full dataset has 30 variables including deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local pairwise difference data was scaled by standard deviation and then transformed via PCA. Then, the same dataset with hospitcal count removed was also scaled and transformed. 3 linear regression models were dones with 3 different amounts of principal components from these transformed sets. The three different models were as follow: the withHops model in which the independent variables were the principal components of the data with hopsital count; the withoutHosp model in which the independent variables were the principal components of the data without hopsital count; and the addHosp model in which the independent variables were the principal components of the data without hopsital count plus the hospital count itself (untransformed).  Likelihood ratio tests were then taken between the withHosp and withoutHosp models and between the addHosp and withoutHosp models. p-values were recorded. These same 2 tests were then repeated with 3 linear models that were the same as the above except that they included only a subset of the principal components from the transformed data- first with only 12 components and then with 8 components. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-values were sensitive to number of principal components in the linear regression models and no justification for why to chose 8 or fewer principal compoents. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-values for all tests with any more than 8 components were insignificant. For ratio test with withouHosp and addHosp models with 8 components, p-value was 0.01317434.  </t>
   </si>
 </sst>
 </file>
@@ -532,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B819FE97-8A8C-0747-9347-2A3D2C3420B4}">
   <dimension ref="B2:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,11 +706,19 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+    <row r="11" spans="2:15" ht="289" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -792,8 +815,10 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
+    <row r="24" spans="2:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>

--- a/data/processed/Overview_of_results.xlsx
+++ b/data/processed/Overview_of_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizmedeiros/Documents/covid/covid-drivers/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106351AA-3AA4-F84D-A44A-41082125941C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3869A1-8D76-0349-9A71-D7006531B825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="-960" windowWidth="38400" windowHeight="23540" xr2:uid="{7CA77637-F8F5-8C43-91E2-0857DED38949}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Method</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t xml:space="preserve">p-values for all tests with any more than 8 components were insignificant. For ratio test with withouHosp and addHosp models with 8 components, p-value was 0.01317434.  </t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -230,6 +233,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B819FE97-8A8C-0747-9347-2A3D2C3420B4}">
-  <dimension ref="B2:O88"/>
+  <dimension ref="A2:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,7 +569,10 @@
     <col min="9" max="9" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +589,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="221" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="221" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -601,7 +616,10 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -616,7 +634,10 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:15" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -631,7 +652,10 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:15" ht="136" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -646,7 +670,10 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:15" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -661,7 +688,10 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:15" ht="187" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="187" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
@@ -676,7 +706,10 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="2:15" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
@@ -691,7 +724,10 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
@@ -706,7 +742,10 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:15" ht="289" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="289" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
@@ -721,35 +760,35 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -763,63 +802,57 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
+    <row r="18" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+    <row r="19" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+    <row r="20" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
-        <v>21</v>
+    <row r="21" spans="2:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="2:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>6</v>
-      </c>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="2:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>24</v>
-      </c>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="5"/>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>

--- a/data/processed/Overview_of_results.xlsx
+++ b/data/processed/Overview_of_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizmedeiros/Documents/covid/covid-drivers/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3869A1-8D76-0349-9A71-D7006531B825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BF29B8-7EB2-FE43-867F-1182FA8AE78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-960" windowWidth="38400" windowHeight="23540" xr2:uid="{7CA77637-F8F5-8C43-91E2-0857DED38949}"/>
+    <workbookView xWindow="-1480" yWindow="-24000" windowWidth="38400" windowHeight="24000" xr2:uid="{7CA77637-F8F5-8C43-91E2-0857DED38949}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Method</t>
   </si>
@@ -110,9 +110,6 @@
     <t xml:space="preserve">Most variables referencing a total for a given county including number of deaths, hospital count, nursing home count were normalized by population. </t>
   </si>
   <si>
-    <t xml:space="preserve">Data was scaled by standard deviation and then transformed via PCA. Linear regression was then run using a subset of principal components as independent variables and deaths as the dependent variable. The model was then used to predict deaths for the same training set. For each variable, the correlation was taken between that variable and the predicted value for deaths. This correlation was then taken as the relationship between that variable and the number of deaths. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Data was scaled by standard deviation and then transformed via PCA. Linear regression was then run using a subset of principal components as independent variables and deaths as the dependent variable. For each component, the variable with the highest correlation to that component were considered the main contributors to that PCA. For these variables, the sign of the correlation to the PC and then that of the coefficient of the PC in the linear model were used to determine the effective direction of correlation between that variable and deaths.  </t>
   </si>
   <si>
@@ -165,6 +162,36 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data was scaled by standard deviation and then transformed via PCA. Linear regression was then run using a subset of principal components as independent variables and deaths as the dependent variable. The model was then used to predict deaths for the same training set. For each variable, the correlation was taken between that variable and the predicted value for deaths. This correlation was then taken as the relationship between that variable and the number of predicted deaths. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No significant p-values if include Nursing home count or percent of elderly population </t>
+  </si>
+  <si>
+    <t>same as above two except took hospital beds (capped at 1000) and combined nursing home count with longterm care</t>
+  </si>
+  <si>
+    <t>Partial correlation using Spearman's method on local pairwise data with Hospital Beds</t>
+  </si>
+  <si>
+    <t>same problems as above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With all components and for test where independent Hops variable is added (without PCA) and removed, p-value is 0.01130937 and estimate for Hosp variable is 1.406760e-05 </t>
+  </si>
+  <si>
+    <t>Likelihood -ratio tests on PCA data with Hospital Beds with capped number of Hospital beds (capped at county level)</t>
+  </si>
+  <si>
+    <t>Likelihood -ratio tests on PCA data with Hospital Beds with capped number of Hospital beds and Nursing Homes (capped at county level) and with land Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as above except with capping Nursing homes ate the 75th percentile and adding Area of land in miles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With all components and for test where independent Hops variable is added (without PCA) and removed, p-value is 0.005038295 and estimate for Hosp variable is 1.548151e-05. In other words, difference in hospital beds has a positive correlation with difference in deaths and has a statistically significant effect on the model. For keeping only 12 components (90% variance, p-value is 3.900125e-05 with estimate for Hospital bed variable being 2.405666e-05. For keeping only 8 components (81% variance), p-value is  7.347416e-05 with estimate being 2.559641e-05. </t>
   </si>
 </sst>
 </file>
@@ -557,7 +584,7 @@
   <dimension ref="A2:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,7 +598,7 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -660,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
@@ -678,13 +705,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -693,16 +720,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -711,16 +738,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -729,16 +756,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -747,37 +774,66 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+    <row r="13" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+    <row r="14" spans="1:15" ht="238" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
@@ -835,7 +891,7 @@
     </row>
     <row r="21" spans="2:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>

--- a/data/processed/Overview_of_results.xlsx
+++ b/data/processed/Overview_of_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizmedeiros/Documents/covid/covid-drivers/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BF29B8-7EB2-FE43-867F-1182FA8AE78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0ED074-F030-DA49-AA3E-84FB68C21FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1480" yWindow="-24000" windowWidth="38400" windowHeight="24000" xr2:uid="{7CA77637-F8F5-8C43-91E2-0857DED38949}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{7CA77637-F8F5-8C43-91E2-0857DED38949}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Method</t>
   </si>
@@ -192,6 +192,55 @@
   </si>
   <si>
     <t xml:space="preserve">With all components and for test where independent Hops variable is added (without PCA) and removed, p-value is 0.005038295 and estimate for Hosp variable is 1.548151e-05. In other words, difference in hospital beds has a positive correlation with difference in deaths and has a statistically significant effect on the model. For keeping only 12 components (90% variance, p-value is 3.900125e-05 with estimate for Hospital bed variable being 2.405666e-05. For keeping only 8 components (81% variance), p-value is  7.347416e-05 with estimate being 2.559641e-05. </t>
+  </si>
+  <si>
+    <t>same as above but with capping both hospital beds and nursing homes each at 75th percentile. Also redid scree plot with variances of successive PCs instead of toal variance and found inflection point at 5 components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scree plot was done incorrectly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likelihood -ratio tests on PCA data with Hospital Beds with capped number of Hospital beds and Nursing Homes (both capped at 75th percentile at county level) and with land Area                                                                                                 </t>
+  </si>
+  <si>
+    <t>Variables list: 
+Independent variables 
+1 Month Prior Intra-Mobility
+1 Month Prior Inter-Mobility
+2wk Prior Intra-Mobility
+2wk Onset Intra-Mobility
+2wk Post Intra-Mobility
+2wk Prior Inter-Mobility
+2wk Onset Inter-Mobility
+2wk Post Inter-Mobility
+[all mobility is as number of trips normalized by population]
+Density per square mile of land area - Population
+Rural-urban_Continuum Code_2013
+Percent of adults with less than a high school diploma 2014-18
+Percent of adults with a bachelor's degree or higher 2014-18
+Unemployment_rate_2018
+Med_HH_Income_Percent_of_State_Total_2018
+Total_age65plus normalized by population 
+Total households!!Average household size
+SCHOOL ENROLLMENT!!Population 3 years and over enrolled in school!!Nursery school preschool
+SCHOOL ENROLLMENT!!Population 3 years and over enrolled in school!!Kindergarten
+SCHOOL ENROLLMENT!!Population 3 years and over enrolled in school!!Elementary school (grades 1-8)
+SCHOOL ENROLLMENT!!Population 3 years and over enrolled in school!!High school (grades 9-12)
+SCHOOL ENROLLMENT!!Population 3 years and over enrolled in school!!College or graduate school
+[all school enrollment variables are normalized by pop] 
+Area in square miles - Land area
+NursingCt- number of nursing homes normalized by county population 
+HospCt - number of hospital beds per county normalized by county population 
+Hispanic Population- fraction of pop
+Black Population- fraction of pop 
+Outbreak Month Temp AVG / F
+Time from outbreak to intervention
+Time from outbreak to national intervention
+Time from national intervention to outbreak
+Dependent variable: deaths normalized by pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With 5 components kept and for test where independent Hops variable is added (without PCA) and removed, p-value is 0.003820024 and estimate for Hosp variable is 2.945047e-05. The test statistic for the likelihoosd ratio test was F=8.367445. </t>
   </si>
 </sst>
 </file>
@@ -583,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B819FE97-8A8C-0747-9347-2A3D2C3420B4}">
   <dimension ref="A2:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,6 +642,7 @@
     <col min="3" max="3" width="64" customWidth="1"/>
     <col min="4" max="4" width="39.83203125" customWidth="1"/>
     <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="6" max="6" width="124.6640625" customWidth="1"/>
     <col min="9" max="9" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -834,15 +884,28 @@
       <c r="D14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+    <row r="15" spans="1:15" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
@@ -874,7 +937,6 @@
       <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
